--- a/data/diphtheria_linelist_AFRO.xlsx
+++ b/data/diphtheria_linelist_AFRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/muiangaj_who_int/Documents/Documents/WHO/diphtheria/quarto_report/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/muiangaj_who_int/Documents/Documents/WHO/diphtheria/data/linelist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F8231F26-3950-493C-8B12-E60F10C90582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE90FA8-814A-4E9B-A855-533DF71C22F5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F8231F26-3950-493C-8B12-E60F10C90582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644D9E35-F387-441E-978D-5681432AFA5B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63E4B459-16E6-4212-A806-F95F17CC110F}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:N539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E3" sqref="E3:E495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>22</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -21408,15 +21408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549509082E4CBA4AA01592E84B61CD5C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c41e26abd9b2b95d867d5813e9a75b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da840e26-16f3-496d-a316-3984eb994400" xmlns:ns3="53f817e0-6c33-4905-9890-0ead791035d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61a9ba1839c6d658eec15a4555065a19" ns2:_="" ns3:_="">
     <xsd:import namespace="da840e26-16f3-496d-a316-3984eb994400"/>
@@ -21617,6 +21608,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21629,14 +21629,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEDF712-6E36-47BF-8712-858036336AEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E92DCEFA-3AD6-4011-9DDC-01D157EE6EB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21651,6 +21643,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEDF712-6E36-47BF-8712-858036336AEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
